--- a/transformacion/staging/fact_actividades_regalias.xlsx
+++ b/transformacion/staging/fact_actividades_regalias.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="203">
   <si>
     <t>N°</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>BENEFICIARIOS</t>
+  </si>
+  <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t>Unnamed: 5</t>
   </si>
   <si>
     <t>1.1.1 Programar en campo el esquema pedagógico, metodológico, logístico y operativo para la asistencia técnica.</t>
@@ -1009,13 +1015,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,4179 +1073,4791 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>84945000</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F2">
         <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>198</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>681296937.5650001</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F3">
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>198</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>13209987</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F4">
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>198</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>4787947401.6</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5">
         <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>198</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>197172855</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>198</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>48000000</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>198</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>5640600</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>198</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>18928344</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>198</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>4137800</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F10">
         <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>198</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>14573760</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>198</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>169137324.8</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F12">
         <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>198</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>3537780.24</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>198</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>197172855</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>198</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>48000000</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>198</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>501187200</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F16">
         <v>2516</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>198</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>498665602.8648649</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F17">
         <v>2516</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>198</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F18">
         <v>2516</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>198</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>90592933.37837838</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>198</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>22054054.05405406</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>198</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>68282162</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>91786612</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O22" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q22" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>370911642</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q23" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>149013421</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q24" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>209628648</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F25">
         <v>151</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q25" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>245658571</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F26">
         <v>70</v>
       </c>
       <c r="G26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L26" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>995552446</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F27">
         <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K27" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>203261386</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F28">
         <v>77</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O28" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q28" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>2350087871</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F29">
         <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K29" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M29" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N29" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>305708445</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F30">
         <v>269</v>
       </c>
       <c r="G30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L30" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M30" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N30" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q30" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>316626604</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F31">
         <v>334</v>
       </c>
       <c r="G31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O31" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>272953968</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F32">
         <v>259</v>
       </c>
       <c r="G32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K32" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L32" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O32" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q32" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>286055759</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F33">
         <v>143</v>
       </c>
       <c r="G33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K33" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L33" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O33" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q33" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>425808192</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F34">
         <v>385</v>
       </c>
       <c r="G34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K34" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O34" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P34" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C35">
         <v>273128659</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F35">
         <v>148</v>
       </c>
       <c r="G35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H35" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K35" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q35" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C36">
         <v>349670848</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F36">
         <v>148</v>
       </c>
       <c r="G36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K36" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L36" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M36" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N36" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q36" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C37">
         <v>1362980708</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F37">
         <v>148</v>
       </c>
       <c r="G37" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H37" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I37" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L37" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M37" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N37" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O37" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P37" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q37" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38">
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>604053684</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F38">
         <v>148</v>
       </c>
       <c r="G38" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L38" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M38" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N38" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O38" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P38" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q38" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39">
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C39">
         <v>266403073</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F39">
         <v>783</v>
       </c>
       <c r="G39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I39" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L39" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M39" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N39" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O39" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P39" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q39" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40">
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <v>188665783</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F40">
         <v>672</v>
       </c>
       <c r="G40" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K40" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M40" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N40" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O40" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41">
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>188665783</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F41">
         <v>665</v>
       </c>
       <c r="G41" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K41" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L41" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M41" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N41" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O41" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q41" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42">
         <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>120099746</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F42">
         <v>214</v>
       </c>
       <c r="G42" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I42" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K42" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L42" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M42" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N42" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O42" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q42" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43">
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C43">
         <v>262035810</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F43">
         <v>486</v>
       </c>
       <c r="G43" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I43" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K43" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L43" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M43" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N43" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q43" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44">
         <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C44">
         <v>54590796</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F44">
         <v>114</v>
       </c>
       <c r="G44" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I44" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K44" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L44" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M44" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N44" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O44" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q44" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45">
         <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C45">
         <v>333768111</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F45">
         <v>2691</v>
       </c>
       <c r="G45" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I45" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K45" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L45" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M45" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N45" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O45" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P45" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q45" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46">
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C46">
         <v>54590796</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F46">
         <v>119</v>
       </c>
       <c r="G46" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I46" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K46" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L46" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M46" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N46" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O46" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P46" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q46" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47">
         <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C47">
         <v>333768111</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F47">
         <v>2308</v>
       </c>
       <c r="G47" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I47" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K47" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L47" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M47" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N47" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O47" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P47" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q47" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48">
         <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C48">
         <v>54590794</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F48">
         <v>112</v>
       </c>
       <c r="G48" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I48" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K48" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L48" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M48" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N48" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O48" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P48" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q48" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49">
         <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C49">
         <v>333768111</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F49">
         <v>2379</v>
       </c>
       <c r="G49" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I49" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K49" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L49" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M49" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N49" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O49" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P49" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q49" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50">
         <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C50">
         <v>1627925859</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F50">
         <v>148</v>
       </c>
       <c r="G50" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H50" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K50" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L50" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M50" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N50" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O50" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q50" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51">
         <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C51">
         <v>2526975969</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F51">
         <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H51" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I51" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K51" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L51" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M51" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N51" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O51" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q51" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52">
         <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C52">
         <v>54590794</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F52">
         <v>112</v>
       </c>
       <c r="G52" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I52" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K52" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L52" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M52" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N52" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O52" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q52" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53">
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C53">
         <v>333768113</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F53">
         <v>2635</v>
       </c>
       <c r="G53" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I53" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K53" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L53" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M53" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N53" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O53" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P53" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q53" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54">
         <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C54">
         <v>54590794</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F54">
         <v>91</v>
       </c>
       <c r="G54" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I54" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K54" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L54" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M54" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N54" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O54" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q54" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55">
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C55">
         <v>333768113</v>
       </c>
       <c r="E55" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F55">
         <v>2376</v>
       </c>
       <c r="G55" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I55" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K55" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L55" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O55" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P55" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q55" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56">
         <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C56">
         <v>420808191</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F56">
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I56" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K56" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L56" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M56" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N56" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O56" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q56" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57">
         <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C57">
         <v>213663175</v>
       </c>
       <c r="E57" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F57">
         <v>2055</v>
       </c>
       <c r="G57" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I57" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K57" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L57" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M57" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N57" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O57" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q57" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58">
         <v>38</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C58">
         <v>213363175</v>
       </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F58">
         <v>2437</v>
       </c>
       <c r="G58" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I58" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K58" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L58" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M58" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N58" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O58" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P58" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q58" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59">
         <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C59">
         <v>14700000</v>
       </c>
       <c r="G59" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I59" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K59" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L59" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M59" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N59" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O59" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q59" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
+        <v>199</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C60">
         <v>38184000</v>
       </c>
       <c r="D60" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F60">
         <v>148</v>
       </c>
       <c r="G60" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I60" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K60" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L60" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N60" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O60" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q60" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+        <v>200</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61">
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C61">
         <v>1772971908</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F61">
         <v>44916</v>
       </c>
       <c r="G61" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H61" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K61" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L61" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N61" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O61" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P61" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q61" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
+        <v>200</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C62">
         <v>341288000</v>
       </c>
       <c r="D62" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F62">
         <v>148</v>
       </c>
       <c r="G62" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K62" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L62" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N62" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O62" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q62" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+        <v>200</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63">
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C63">
         <v>2744277110</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F63">
         <v>7499</v>
       </c>
       <c r="G63" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H63" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K63" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L63" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N63" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O63" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q63" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
+        <v>200</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64">
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C64">
         <v>456975160</v>
       </c>
       <c r="D64" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F64">
         <v>148</v>
       </c>
       <c r="G64" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K64" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N64" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O64" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q64" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+        <v>200</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65">
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C65">
         <v>1172012000</v>
       </c>
       <c r="D65" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F65">
         <v>740</v>
       </c>
       <c r="G65" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K65" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L65" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N65" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O65" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P65" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q65" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+        <v>200</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66">
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C66">
         <v>130906000</v>
       </c>
       <c r="D66" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F66">
         <v>740</v>
       </c>
       <c r="G66" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H66" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K66" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L66" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N66" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O66" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q66" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
+        <v>200</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67">
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C67">
         <v>416708800</v>
       </c>
       <c r="D67" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F67">
         <v>148</v>
       </c>
       <c r="G67" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K67" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L67" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N67" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O67" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q67" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+        <v>200</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68">
         <v>9</v>
       </c>
       <c r="K68" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L68" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N68" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O68" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q68" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+        <v>200</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69">
         <v>10</v>
       </c>
       <c r="K69" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L69" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N69" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O69" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P69" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q69" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+        <v>200</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70">
         <v>11</v>
       </c>
       <c r="K70" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L70" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N70" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O70" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P70" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q70" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
+        <v>200</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71">
         <v>12</v>
       </c>
       <c r="K71" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L71" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N71" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O71" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P71" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q71" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
+        <v>200</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72">
         <v>13</v>
       </c>
       <c r="K72" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L72" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N72" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O72" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P72" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q72" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
+        <v>200</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73">
         <v>14</v>
       </c>
       <c r="K73" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L73" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N73" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O73" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P73" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q73" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
+        <v>200</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74">
         <v>15</v>
       </c>
       <c r="K74" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L74" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N74" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O74" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P74" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q74" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
+        <v>200</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75">
         <v>16</v>
       </c>
       <c r="K75" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L75" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N75" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O75" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P75" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q75" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
+        <v>200</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76">
         <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L76" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N76" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O76" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P76" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q76" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
+        <v>200</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77">
         <v>18</v>
       </c>
       <c r="K77" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L77" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N77" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O77" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P77" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q77" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+        <v>200</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78">
         <v>19</v>
       </c>
       <c r="K78" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L78" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N78" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O78" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P78" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q78" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+        <v>200</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79">
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C79">
         <v>299321784</v>
       </c>
       <c r="E79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G79" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I79" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K79" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L79" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M79" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N79" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O79" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P79" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q79" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+        <v>201</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80">
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C80">
         <v>433325727</v>
       </c>
       <c r="E80" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G80" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K80" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L80" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M80" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N80" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O80" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P80" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q80" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
+        <v>201</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81">
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C81">
         <v>562659693</v>
       </c>
       <c r="E81" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G81" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K81" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L81" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M81" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N81" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O81" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P81" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q81" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
+        <v>201</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82">
         <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C82">
         <v>514284884</v>
       </c>
       <c r="E82" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G82" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K82" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M82" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N82" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O82" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q82" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
+        <v>201</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83">
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C83">
         <v>2876038976</v>
       </c>
       <c r="E83" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G83" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K83" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L83" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M83" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N83" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O83" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P83" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q83" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
+        <v>201</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84">
         <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C84">
         <v>256310980</v>
       </c>
       <c r="E84" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F84">
         <v>110</v>
       </c>
       <c r="G84" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K84" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L84" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M84" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N84" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O84" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P84" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q84" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
+        <v>202</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85">
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C85">
         <v>3060668917</v>
       </c>
       <c r="E85" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F85">
         <v>110</v>
       </c>
       <c r="G85" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K85" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L85" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M85" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N85" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O85" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P85" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q85" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
+        <v>202</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86">
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C86">
         <v>176039789</v>
       </c>
       <c r="E86" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K86" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L86" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M86" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N86" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O86" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P86" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q86" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
+        <v>202</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87">
         <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C87">
         <v>872573666</v>
       </c>
       <c r="E87" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F87">
         <v>110</v>
       </c>
       <c r="G87" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K87" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L87" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M87" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N87" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O87" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P87" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q87" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
+        <v>202</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88">
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C88">
         <v>177768800</v>
       </c>
       <c r="E88" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K88" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L88" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M88" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N88" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O88" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P88" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q88" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
+        <v>202</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89">
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C89">
         <v>153205681</v>
       </c>
       <c r="E89" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K89" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L89" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M89" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N89" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O89" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P89" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q89" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
+        <v>202</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90">
         <v>7</v>
       </c>
       <c r="K90" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L90" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M90" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N90" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O90" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P90" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q90" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
+        <v>202</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91">
         <v>8</v>
       </c>
       <c r="K91" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L91" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M91" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N91" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O91" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P91" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q91" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
+        <v>202</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92">
         <v>9</v>
       </c>
       <c r="K92" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L92" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M92" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N92" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O92" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P92" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q92" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
+        <v>202</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93">
         <v>10</v>
       </c>
       <c r="K93" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L93" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M93" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N93" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O93" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P93" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q93" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17">
+        <v>202</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94">
         <v>11</v>
       </c>
       <c r="K94" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L94" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M94" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N94" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O94" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P94" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q94" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
+        <v>202</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95">
         <v>12</v>
       </c>
       <c r="K95" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L95" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M95" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N95" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O95" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P95" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q95" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
+        <v>202</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96">
         <v>13</v>
       </c>
       <c r="K96" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L96" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M96" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N96" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O96" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P96" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q96" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
+        <v>202</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97">
         <v>14</v>
       </c>
       <c r="K97" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L97" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M97" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N97" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O97" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P97" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q97" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17">
+        <v>202</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98">
         <v>15</v>
       </c>
       <c r="K98" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L98" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M98" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N98" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O98" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P98" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q98" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
+        <v>202</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99">
         <v>16</v>
       </c>
       <c r="K99" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L99" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M99" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N99" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O99" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P99" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q99" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17">
+        <v>202</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100">
         <v>17</v>
       </c>
       <c r="K100" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L100" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M100" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N100" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O100" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P100" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q100" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17">
+        <v>202</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101">
         <v>18</v>
       </c>
       <c r="K101" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L101" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M101" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N101" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O101" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P101" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q101" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17">
+        <v>202</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102">
         <v>19</v>
       </c>
       <c r="K102" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L102" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M102" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N102" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O102" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P102" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q102" t="s">
-        <v>200</v>
+        <v>202</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
